--- a/spec/fixtures/files/excel/example_trucking_no_fees.xlsx
+++ b/spec/fixtures/files/excel/example_trucking_no_fees.xlsx
@@ -35,7 +35,7 @@
     <t>COUNTRY_CODE</t>
   </si>
   <si>
-    <t>20037 - 20039</t>
+    <t>01060 - 01068</t>
   </si>
   <si>
     <t>DE</t>
@@ -188,70 +188,70 @@
     <t>0.0 - 100.0</t>
   </si>
   <si>
-    <t>101.0 - 200.0</t>
-  </si>
-  <si>
-    <t>201.0 - 300.0</t>
-  </si>
-  <si>
-    <t>301.0 - 400.0</t>
-  </si>
-  <si>
-    <t>401.0 - 500.0</t>
-  </si>
-  <si>
-    <t>501.0 - 600.0</t>
-  </si>
-  <si>
-    <t>601.0 - 700.0</t>
-  </si>
-  <si>
-    <t>701.0 - 800.0</t>
-  </si>
-  <si>
-    <t>801.0 - 900.0</t>
-  </si>
-  <si>
-    <t>901.0 - 1000.0</t>
-  </si>
-  <si>
-    <t>1001.0 - 1100.0</t>
-  </si>
-  <si>
-    <t>1101.0 - 1200.0</t>
-  </si>
-  <si>
-    <t>1201.0 - 1300.0</t>
-  </si>
-  <si>
-    <t>1301.0 - 1400.0</t>
-  </si>
-  <si>
-    <t>1401.0 - 1500.0</t>
-  </si>
-  <si>
-    <t>1501.0 - 1600.0</t>
-  </si>
-  <si>
-    <t>1601.0 - 1700.0</t>
-  </si>
-  <si>
-    <t>1701.0 - 1800.0</t>
-  </si>
-  <si>
-    <t>1801.0 - 1900.0</t>
-  </si>
-  <si>
-    <t>1901.0 - 2000.0</t>
-  </si>
-  <si>
-    <t>2001.0 - 2500.0</t>
-  </si>
-  <si>
-    <t>2501.0 - 3000.0</t>
-  </si>
-  <si>
-    <t>3001.0 - 3500.0</t>
+    <t>100.0 - 200.0</t>
+  </si>
+  <si>
+    <t>200.0 - 300.0</t>
+  </si>
+  <si>
+    <t>300.0 - 400.0</t>
+  </si>
+  <si>
+    <t>400.0 - 500.0</t>
+  </si>
+  <si>
+    <t>500.0 - 600.0</t>
+  </si>
+  <si>
+    <t>600.0 - 700.0</t>
+  </si>
+  <si>
+    <t>700.0 - 800.0</t>
+  </si>
+  <si>
+    <t>800.0 - 900.0</t>
+  </si>
+  <si>
+    <t>900.0 - 1000.0</t>
+  </si>
+  <si>
+    <t>1000.0 - 1100.0</t>
+  </si>
+  <si>
+    <t>1100.0 - 1200.0</t>
+  </si>
+  <si>
+    <t>1200.0 - 1300.0</t>
+  </si>
+  <si>
+    <t>1300.0 - 1400.0</t>
+  </si>
+  <si>
+    <t>1400.0 - 1500.0</t>
+  </si>
+  <si>
+    <t>1500.0 - 1600.0</t>
+  </si>
+  <si>
+    <t>1600.0 - 1700.0</t>
+  </si>
+  <si>
+    <t>1700.0 - 1800.0</t>
+  </si>
+  <si>
+    <t>1800.0 - 1900.0</t>
+  </si>
+  <si>
+    <t>1900.0 - 2000.0</t>
+  </si>
+  <si>
+    <t>2000.0 - 2500.0</t>
+  </si>
+  <si>
+    <t>2500.0 - 3000.0</t>
+  </si>
+  <si>
+    <t>3000.0 - 3500.0</t>
   </si>
   <si>
     <t>Faster</t>
@@ -266,7 +266,7 @@
     <numFmt numFmtId="165" formatCode="yyyy/m/d"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -290,6 +290,10 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -300,10 +304,6 @@
       <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -319,6 +319,11 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -345,8 +350,22 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -395,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -408,32 +427,39 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -442,22 +468,22 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -714,10 +740,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -725,11 +751,11 @@
       <c r="A3" s="2">
         <v>2.0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -737,307 +763,307 @@
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="4"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" ht="15.75" customHeight="1"/>
     <row r="56" ht="15.75" customHeight="1"/>
@@ -2013,118 +2039,118 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="T3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -3138,991 +3164,991 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>250.0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <v>1.0</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="15">
         <v>44075.0</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="16">
         <v>44561.0</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="9">
         <v>1500.0</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="9">
         <v>8.0</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="9">
         <v>5.0</v>
       </c>
-      <c r="R2" s="8" t="b">
+      <c r="R2" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Y4" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21">
         <v>0.0</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="21">
         <v>0.0</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="21">
         <v>0.0</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="21">
         <v>0.0</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="21">
         <v>0.0</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="21">
         <v>0.0</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="21">
         <v>0.0</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="21">
         <v>0.0</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="21">
         <v>0.0</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="21">
         <v>0.0</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="21">
         <v>0.0</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="21">
         <v>0.0</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="21">
         <v>0.0</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="21">
         <v>0.0</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="21">
         <v>0.0</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="21">
         <v>0.0</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="21">
         <v>0.0</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="21">
         <v>0.0</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="21">
         <v>0.0</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="21">
         <v>0.0</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="21">
         <v>0.0</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="21">
         <v>0.0</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="21">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19">
+      <c r="A6" s="22">
         <v>1.0</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="19">
         <v>0.0</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="23">
         <v>28.392</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="24">
         <v>35.49</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="25">
         <v>45.422</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="24">
         <v>56.069</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="25">
         <v>71.69500000000001</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="24">
         <v>79.495</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="25">
         <v>88.01</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="24">
         <v>95.823</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="25">
         <v>105.05300000000001</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="24">
         <v>116.40200000000002</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="25">
         <v>116.4</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="24">
         <v>117.38749999999999</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="25">
         <v>121.4875</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="24">
         <v>127.625</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="25">
         <v>131.0375</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="24">
         <v>134.45</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="25">
         <v>135.1375</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="24">
         <v>136.5</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="25">
         <v>143.325</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V6" s="24">
         <v>147.425</v>
       </c>
-      <c r="W6" s="22">
+      <c r="W6" s="25">
         <v>153.5625</v>
       </c>
-      <c r="X6" s="21">
+      <c r="X6" s="24">
         <v>156.975</v>
       </c>
-      <c r="Y6" s="22">
+      <c r="Y6" s="25">
         <v>163.79999999999998</v>
       </c>
-      <c r="Z6" s="17"/>
+      <c r="Z6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="19"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="17"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="17"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" s="19"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="17"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="17"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11">
-      <c r="A11" s="19"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="17"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="20"/>
     </row>
     <row r="12">
-      <c r="A12" s="19"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="17"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="19"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="17"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="20"/>
     </row>
     <row r="14">
-      <c r="A14" s="19"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="17"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="17"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="20"/>
     </row>
     <row r="16">
-      <c r="A16" s="19"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="17"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="17"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="20"/>
     </row>
     <row r="18">
-      <c r="A18" s="19"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="17"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="20"/>
     </row>
     <row r="19">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="17"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="20"/>
     </row>
     <row r="20">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="17"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="17"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="20"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="17"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="20"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="17"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="20"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="17"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="20"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="17"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="20"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="17"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="20"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="Z27" s="17"/>
+      <c r="Z27" s="20"/>
     </row>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>
@@ -5113,1067 +5139,1067 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>250.0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <v>1.0</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="15">
         <v>44075.0</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="16">
         <v>44561.0</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="9">
         <v>1500.0</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="9">
         <v>8.0</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="9">
         <v>5.0</v>
       </c>
-      <c r="R2" s="8" t="b">
+      <c r="R2" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Y4" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21">
         <v>0.0</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="21">
         <v>0.0</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="21">
         <v>0.0</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="21">
         <v>0.0</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="21">
         <v>0.0</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="21">
         <v>0.0</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="21">
         <v>0.0</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="21">
         <v>0.0</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="21">
         <v>0.0</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="21">
         <v>0.0</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="21">
         <v>0.0</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="21">
         <v>0.0</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="21">
         <v>0.0</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="21">
         <v>0.0</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="21">
         <v>0.0</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="21">
         <v>0.0</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="21">
         <v>0.0</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="21">
         <v>0.0</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="21">
         <v>0.0</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="21">
         <v>0.0</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="21">
         <v>0.0</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="21">
         <v>0.0</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="21">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19">
+      <c r="A6" s="22">
         <v>1.0</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="19">
         <v>0.0</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="23">
         <v>28.392</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="24">
         <v>35.49</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="25">
         <v>45.422</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="24">
         <v>56.069</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="25">
         <v>71.69500000000001</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="24">
         <v>79.495</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="25">
         <v>88.01</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="24">
         <v>95.823</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="25">
         <v>105.05300000000001</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="24">
         <v>116.40200000000002</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="25">
         <v>116.4</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="24">
         <v>117.38749999999999</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="25">
         <v>121.4875</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="24">
         <v>127.625</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="25">
         <v>131.0375</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="24">
         <v>134.45</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="25">
         <v>135.1375</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="24">
         <v>136.5</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="25">
         <v>143.325</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V6" s="24">
         <v>147.425</v>
       </c>
-      <c r="W6" s="22">
+      <c r="W6" s="25">
         <v>153.5625</v>
       </c>
-      <c r="X6" s="21">
+      <c r="X6" s="24">
         <v>156.975</v>
       </c>
-      <c r="Y6" s="22">
+      <c r="Y6" s="25">
         <v>163.79999999999998</v>
       </c>
-      <c r="Z6" s="17"/>
+      <c r="Z6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="19">
+      <c r="A7" s="22">
         <v>2.0</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="20">
         <v>0.0</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="26">
         <f t="shared" ref="C7:Y7" si="1">C6*1.05</f>
         <v>29.8116</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="26">
         <f t="shared" si="1"/>
         <v>37.2645</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="26">
         <f t="shared" si="1"/>
         <v>47.6931</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="26">
         <f t="shared" si="1"/>
         <v>58.87245</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="26">
         <f t="shared" si="1"/>
         <v>75.27975</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="26">
         <f t="shared" si="1"/>
         <v>83.46975</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="26">
         <f t="shared" si="1"/>
         <v>92.4105</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="26">
         <f t="shared" si="1"/>
         <v>100.61415</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="26">
         <f t="shared" si="1"/>
         <v>110.30565</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="26">
         <f t="shared" si="1"/>
         <v>122.2221</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="26">
         <f t="shared" si="1"/>
         <v>122.22</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="26">
         <f t="shared" si="1"/>
         <v>123.256875</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="26">
         <f t="shared" si="1"/>
         <v>127.561875</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="26">
         <f t="shared" si="1"/>
         <v>134.00625</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="26">
         <f t="shared" si="1"/>
         <v>137.589375</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="26">
         <f t="shared" si="1"/>
         <v>141.1725</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="26">
         <f t="shared" si="1"/>
         <v>141.894375</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="26">
         <f t="shared" si="1"/>
         <v>143.325</v>
       </c>
-      <c r="U7" s="23">
+      <c r="U7" s="26">
         <f t="shared" si="1"/>
         <v>150.49125</v>
       </c>
-      <c r="V7" s="23">
+      <c r="V7" s="26">
         <f t="shared" si="1"/>
         <v>154.79625</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="26">
         <f t="shared" si="1"/>
         <v>161.240625</v>
       </c>
-      <c r="X7" s="23">
+      <c r="X7" s="26">
         <f t="shared" si="1"/>
         <v>164.82375</v>
       </c>
-      <c r="Y7" s="23">
+      <c r="Y7" s="26">
         <f t="shared" si="1"/>
         <v>171.99</v>
       </c>
-      <c r="Z7" s="17"/>
+      <c r="Z7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="17"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" s="19"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="17"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="17"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11">
-      <c r="A11" s="19"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="17"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="20"/>
     </row>
     <row r="12">
-      <c r="A12" s="19"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="17"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="19"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="17"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="20"/>
     </row>
     <row r="14">
-      <c r="A14" s="19"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="17"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="17"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="20"/>
     </row>
     <row r="16">
-      <c r="A16" s="19"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="17"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="17"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="20"/>
     </row>
     <row r="18">
-      <c r="A18" s="19"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="17"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="20"/>
     </row>
     <row r="19">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="17"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="20"/>
     </row>
     <row r="20">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="17"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="17"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="20"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="17"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="20"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="17"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="20"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="17"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="20"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="17"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="20"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="17"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="20"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="Z27" s="17"/>
+      <c r="Z27" s="20"/>
     </row>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>
